--- a/отчет о выполненной работе.xlsx
+++ b/отчет о выполненной работе.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="735" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="735"/>
   </bookViews>
   <sheets>
     <sheet name="it" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1806" uniqueCount="875">
   <si>
     <t>день недели</t>
   </si>
@@ -2800,13 +2800,22 @@
     <t>вертска практика 196</t>
   </si>
   <si>
-    <t>рефакторинг  3 стр 23:08 2 видео</t>
-  </si>
-  <si>
     <t>JS основы 196</t>
   </si>
   <si>
-    <t>//3:27 массивы упрощение метод find</t>
+    <t>рефакторинг  3 стр 36:30 2 видео</t>
+  </si>
+  <si>
+    <t>вертска практика 197</t>
+  </si>
+  <si>
+    <t>необходимо практиковаться с методами работы над массивами</t>
+  </si>
+  <si>
+    <t>//3:46 начало работы с обьектами</t>
+  </si>
+  <si>
+    <t>JS основы 197</t>
   </si>
 </sst>
 </file>
@@ -3818,11 +3827,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="126802176"/>
-        <c:axId val="126984192"/>
+        <c:axId val="114223360"/>
+        <c:axId val="128753664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126802176"/>
+        <c:axId val="114223360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3831,7 +3840,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126984192"/>
+        <c:crossAx val="128753664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3839,7 +3848,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126984192"/>
+        <c:axId val="128753664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3850,7 +3859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126802176"/>
+        <c:crossAx val="114223360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3975,11 +3984,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="126996480"/>
-        <c:axId val="126998016"/>
+        <c:axId val="128765952"/>
+        <c:axId val="128767488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="126996480"/>
+        <c:axId val="128765952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126998016"/>
+        <c:crossAx val="128767488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3996,7 +4005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126998016"/>
+        <c:axId val="128767488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4007,7 +4016,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126996480"/>
+        <c:crossAx val="128765952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4442,9 +4451,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G573"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A446" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C463" sqref="C463"/>
+      <selection pane="bottomLeft" activeCell="E461" sqref="E461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10609,26 +10618,51 @@
         <v>44167</v>
       </c>
       <c r="C458" s="47" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D458" s="43">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="459" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A459" s="73"/>
-      <c r="B459" s="102"/>
-      <c r="C459" s="9"/>
-    </row>
-    <row r="460" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A460" s="73"/>
-      <c r="B460" s="102"/>
-      <c r="C460" s="9"/>
-    </row>
-    <row r="461" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A461" s="73"/>
-      <c r="B461" s="102"/>
-      <c r="C461" s="9"/>
+        <v>60</v>
+      </c>
+      <c r="E458" s="43" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A459" s="87" t="s">
+        <v>195</v>
+      </c>
+      <c r="B459" s="103"/>
+      <c r="C459" s="35"/>
+    </row>
+    <row r="460" spans="1:5" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="211" t="s">
+        <v>728</v>
+      </c>
+      <c r="B460" s="205">
+        <v>44169</v>
+      </c>
+      <c r="C460" s="47" t="s">
+        <v>871</v>
+      </c>
+      <c r="D460" s="43">
+        <v>60</v>
+      </c>
+      <c r="E460" s="43" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="211"/>
+      <c r="B461" s="205"/>
+      <c r="C461" s="47" t="s">
+        <v>874</v>
+      </c>
+      <c r="D461" s="43">
+        <v>60</v>
+      </c>
+      <c r="E461" s="43" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="462" spans="1:5" s="43" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A462" s="73"/>
@@ -11497,7 +11531,8 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G1"/>
-  <mergeCells count="30">
+  <mergeCells count="32">
+    <mergeCell ref="B460:B461"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B20:B22"/>
@@ -11523,6 +11558,7 @@
     <mergeCell ref="B444:B445"/>
     <mergeCell ref="A447:A448"/>
     <mergeCell ref="B447:B448"/>
+    <mergeCell ref="A460:A461"/>
     <mergeCell ref="E361:E362"/>
     <mergeCell ref="D361:D362"/>
     <mergeCell ref="C361:C362"/>
@@ -12414,8 +12450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12443,7 +12479,7 @@
         <v>842</v>
       </c>
       <c r="D2" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F2" t="s">
         <v>856</v>
@@ -12460,7 +12496,7 @@
         <v>840</v>
       </c>
       <c r="D3" s="199" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12486,7 +12522,9 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="47"/>
       <c r="B6" s="178"/>
-      <c r="C6" s="47"/>
+      <c r="C6" s="47" t="s">
+        <v>872</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
@@ -12504,9 +12542,10 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
